--- a/Data/Reservoir_historical_volume.xlsx
+++ b/Data/Reservoir_historical_volume.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="2001" sheetId="1" r:id="rId1"/>
+    <sheet name="2005" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>Reservoir</t>
   </si>
@@ -82,13 +82,19 @@
   </si>
   <si>
     <t>this is from 2012</t>
+  </si>
+  <si>
+    <t>Initial Volume (12/31/2001)-ACREFT</t>
+  </si>
+  <si>
+    <t>these start 12/29</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +105,27 @@
     <font>
       <sz val="11"/>
       <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF5A5A5A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF5A5A5A"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -124,9 +151,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -652,10 +682,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,219 +697,150 @@
     <col min="5" max="5" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>170920.00099999999</v>
+        <v>156590</v>
       </c>
       <c r="C2">
         <f>B2*1233.48</f>
-        <v>210826402.83348</v>
-      </c>
-      <c r="D2">
-        <v>461075511</v>
-      </c>
-      <c r="E2">
-        <f>C2/D2</f>
-        <v>0.45724918761404354</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>193150633.19999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>125510.001</v>
+        <v>127847.5</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C9" si="0">B3*1233.48</f>
-        <v>154814076.03348002</v>
-      </c>
-      <c r="D3">
-        <v>622295321</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E9" si="1">C3/D3</f>
-        <v>0.24877910986812646</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="C3:C12" si="0">B3*1233.48</f>
+        <v>157697334.30000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6600</v>
+        <v>9982</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>8140968</v>
-      </c>
-      <c r="D4">
-        <v>168741328</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>4.8245252638997836E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12312597.359999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>7262</v>
+        <v>7762</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>8957531.7599999998</v>
-      </c>
-      <c r="D5">
-        <v>178855940</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>5.008238339749857E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9574271.7599999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>2256</v>
+        <v>3434</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>2782730.88</v>
-      </c>
-      <c r="D6">
-        <v>68014597</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>4.0913730327623639E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4235770.32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>7664</v>
+        <v>3885.2159999999999</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>9453390.7200000007</v>
-      </c>
-      <c r="D7">
-        <v>211850506</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>4.4622931983933994E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4792336.2316800002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8">
-        <v>22524.023000000001</v>
+        <v>64910</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>27782931.890040003</v>
-      </c>
-      <c r="D8">
-        <v>246696368</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>0.11261994700319221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>80065186.799999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9">
-        <v>4079</v>
+        <v>4583</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>5031364.92</v>
-      </c>
-      <c r="D9">
-        <v>168123574</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>2.9926587927520502E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+        <v>5653038.8399999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="B10" s="4">
+        <v>180240</v>
+      </c>
       <c r="C10">
-        <f>_xlfn.FORECAST.LINEAR(D10,C2:C9,D2:D9)</f>
-        <v>166584170.82838199</v>
-      </c>
-      <c r="D10">
-        <v>551246341</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+        <f t="shared" si="0"/>
+        <v>222322435.20000002</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="B11" s="3">
+        <v>32142.423999999999</v>
+      </c>
       <c r="C11">
-        <f>_xlfn.FORECAST.LINEAR(D11,C2:C9,D2:D9)</f>
-        <v>-16062425.74628301</v>
-      </c>
-      <c r="D11">
-        <v>90167522</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+        <f t="shared" si="0"/>
+        <v>39647037.15552</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12">
-        <v>157838</v>
+      <c r="B12" s="3">
+        <v>160860</v>
       </c>
       <c r="C12">
-        <f>B12*1233.48</f>
-        <v>194690016.24000001</v>
-      </c>
-      <c r="D12">
-        <v>606873064</v>
-      </c>
-      <c r="E12">
-        <f>C12/D12</f>
-        <v>0.32080846521143341</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E14">
-        <f>AVERAGE(E2:E12)</f>
-        <v>0.15036084399693003</v>
+        <f t="shared" si="0"/>
+        <v>198417592.80000001</v>
       </c>
     </row>
   </sheetData>
